--- a/output/google_maps_data_Tempat_Ibadah_Gunungkidul.xlsx
+++ b/output/google_maps_data_Tempat_Ibadah_Gunungkidul.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
           <t>(0274) 391063</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.8</v>
+        <v>-8.081969000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>-8.081969000000001</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.556897</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gua+Maria+Tritis+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb2283a2f8c8f:0x6267fb577e9773c8!8m2!3d-8.0819686!4d110.5568965!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0T1hGdGNXdG5SUkFC4AEA-gEECAAQPA!16s%2Fg%2F11bc7tvcts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gua+Maria+Tritis+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb2283a2f8c8f:0x6267fb577e9773c8!8m2!3d-8.0819686!4d110.5568965!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJ0T1hGdGNXdG5SUkFC4AEA-gEECAAQPA!16s%2Fg%2F11bc7tvcts?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>14 jam lalu</t>
         </is>
@@ -548,25 +542,24 @@
           <t>0813-2987-6222</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>5</v>
+      </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>-7.970281</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.970281</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.604654</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BFA+CENTER+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3680be17453:0x2c08e6d41b6ae0dc!8m2!3d-7.9702809!4d110.6046541!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MZVhCcE1YUkJSUkFC4AEA-gEECAAQDg!16s%2Fg%2F11fy5gppq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BFA+CENTER+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3680be17453:0x2c08e6d41b6ae0dc!8m2!3d-7.9702809!4d110.6046541!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU5MZVhCcE1YUkJSUkFC4AEA-gEECAAQDg!16s%2Fg%2F11fy5gppq0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -589,25 +582,24 @@
           <t>(0274) 391063</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.8</v>
+        <v>-7.971524</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.971524</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.606731</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus+Kanisius,+Wonosari/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3669162bc5b:0xf8437668e2a85880!8m2!3d-7.9715237!4d110.6067313!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBNM0ZYYmtaQkVBReABAPoBBAgAEEM!16s%2Fg%2F1hf9nfz1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus+Kanisius,+Wonosari/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3669162bc5b:0xf8437668e2a85880!8m2!3d-7.9715237!4d110.6067313!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBNM0ZYYmtaQkVBReABAPoBBAgAEEM!16s%2Fg%2F1hf9nfz1v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>21 jam lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>0895-3559-13855</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.9</v>
+        <v>-7.96995</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.96995</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.611166</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBI+Jl.+Pemuda+Wonosari+Gunungkidul+-+Rayon+3/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb360b4708181:0xc23127615681c559!8m2!3d-7.9699504!4d110.6111662!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPVTlUWlhCUlJSQULgAQD6AQQIABAX!16s%2Fg%2F11g6x6w4cn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBI+Jl.+Pemuda+Wonosari+Gunungkidul+-+Rayon+3/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb360b4708181:0xc23127615681c559!8m2!3d-7.9699504!4d110.6111662!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPVTlUWlhCUlJSQULgAQD6AQQIABAX!16s%2Fg%2F11g6x6w4cn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -675,25 +666,24 @@
           <t>0813-2861-0235</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.9</v>
+        <v>-7.980873</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.980873</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.614955</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBI+(Gereja+Bethel+Indonesia)+Miracle+Service+Wonosari/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb37d10e8f7e9:0x30a20686b1a4bf4!8m2!3d-7.9808731!4d110.6149548!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPSE5oTFRWQlJSQULgAQD6AQQIABAn!16s%2Fg%2F11cs60jslv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBI+(Gereja+Bethel+Indonesia)+Miracle+Service+Wonosari/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb37d10e8f7e9:0x30a20686b1a4bf4!8m2!3d-7.9808731!4d110.6149548!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVPSE5oTFRWQlJSQULgAQD6AQQIABAn!16s%2Fg%2F11cs60jslv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -712,25 +702,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.6</v>
+        <v>-7.913102</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.913102</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.583507</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gua+Maria+Sendang+Rosario,+Ngijoreja/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cf72f62738d:0xb04a4b0bc1b5a636!8m2!3d-7.9131019!4d110.5835066!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1Ymt0NlVGbFJFQUXgAQD6AQQIABA6!16s%2Fg%2F11bymzjy2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gua+Maria+Sendang+Rosario,+Ngijoreja/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cf72f62738d:0xb04a4b0bc1b5a636!8m2!3d-7.9131019!4d110.5835066!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1Ymt0NlVGbFJFQUXgAQD6AQQIABA6!16s%2Fg%2F11bymzjy2p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -753,25 +742,24 @@
           <t>0812-1562-544</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.5</v>
+        <v>-7.943464</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.943464</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.602214</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTA+Cabang+Wonosari+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cb181059ea1:0xc34cfadaa5a05f3c!8m2!3d-7.943464!4d110.6022137!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11cnb8bwkd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTA+Cabang+Wonosari+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cb181059ea1:0xc34cfadaa5a05f3c!8m2!3d-7.943464!4d110.6022137!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11cnb8bwkd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -798,25 +786,24 @@
           <t>(0274) 391146</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.5</v>
+        <v>-7.965047</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.965047</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.602611</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Wonosari/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3439f69798d:0x603fe0f76df26f1e!8m2!3d-7.9650472!4d110.6026114!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVE1Ym5aSFJWaEJFQUXgAQD6AQQIABAa!16s%2Fg%2F1pzsswqmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Wonosari/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3439f69798d:0x603fe0f76df26f1e!8m2!3d-7.9650472!4d110.6026114!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVE1Ym5aSFJWaEJFQUXgAQD6AQQIABAa!16s%2Fg%2F1pzsswqmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -839,25 +826,24 @@
           <t>0852-2848-4399</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.4</v>
+        <v>-8.005561999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.005561999999999</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.590109</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Majelis+Al+Husaini+Wonosari+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb323a3a9b233:0x8a258563ffa9f019!8m2!3d-8.0055625!4d110.5901094!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkthMlp1TFVOM0VBReABAPoBBAgAEEk!16s%2Fg%2F11txdjms1y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J10" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Majelis+Al+Husaini+Wonosari+Gunungkidul/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb323a3a9b233:0x8a258563ffa9f019!8m2!3d-8.0055625!4d110.5901094!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkthMlp1TFVOM0VBReABAPoBBAgAEEk!16s%2Fg%2F11txdjms1y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -884,25 +870,24 @@
           <t>0813-2888-6954</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.6</v>
+        <v>-8.03806</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.03806</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.465187</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Panggang/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bac1ea844bca9:0xcda83baa8a03ca92!8m2!3d-8.03806!4d110.4651871!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F1pzr44cw6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Panggang/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bac1ea844bca9:0xcda83baa8a03ca92!8m2!3d-8.03806!4d110.4651871!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F1pzr44cw6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -921,25 +906,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.6</v>
+        <v>-7.961211</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.961211</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.693548</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Susukan+Panthan+Ngagel/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5416f397051:0x9fb558642fc3b3f!8m2!3d-7.9612105!4d110.6935483!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXlYM0JxT1hsblJSQULgAQD6AQQIABAX!16s%2Fg%2F11cjj0njv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Susukan+Panthan+Ngagel/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5416f397051:0x9fb558642fc3b3f!8m2!3d-7.9612105!4d110.6935483!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXlYM0JxT1hsblJSQULgAQD6AQQIABAX!16s%2Fg%2F11cjj0njv0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -962,25 +946,24 @@
           <t>0811-2657-287</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.7</v>
+        <v>-8.037197000000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-8.037197000000001</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.456377</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gua+Maria+Bintang+Samudera/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bad2d6ebe6903:0x2ccee3f40f4c3041!8m2!3d-8.0371971!4d110.456377!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZzaHJpbmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmtlbVJ1ZFZWQkVBReABAPoBBAgAEDI!16s%2Fg%2F11pzhjk787?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gua+Maria+Bintang+Samudera/@-8.0819686,110.2685054,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bad2d6ebe6903:0x2ccee3f40f4c3041!8m2!3d-8.0371971!4d110.456377!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZzaHJpbmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmtlbVJ1ZFZWQkVBReABAPoBBAgAEDI!16s%2Fg%2F11pzhjk787?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1003,25 +986,24 @@
           <t>0819-3175-7528</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>-7.822302</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.822302</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.724682</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MTA+Cabang+Ngawen+1+Gunungkidul/@-7.8223017,110.4362905,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a3632709d3add:0x48b76dfc91676f92!8m2!3d-7.8223017!4d110.7246816!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnROemR1VTBaUkVBReABAPoBBAgAEDc!16s%2Fg%2F11cn67s6y6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MTA+Cabang+Ngawen+1+Gunungkidul/@-7.8223017,110.4362905,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a3632709d3add:0x48b76dfc91676f92!8m2!3d-7.8223017!4d110.7246816!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnROemR1VTBaUkVBReABAPoBBAgAEDc!16s%2Fg%2F11cn67s6y6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1040,25 +1022,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
       <c r="F15" t="n">
-        <v>5</v>
+        <v>-7.977613</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.977613</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.583544</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Jamiatul+Mudzakkirin+Shiddiqiyyah+Gunungkidul/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3810fea8ec5:0x7a41c183b7cbe428!8m2!3d-7.9776134!4d110.583544!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11kj_jtr8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Jamiatul+Mudzakkirin+Shiddiqiyyah+Gunungkidul/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3810fea8ec5:0x7a41c183b7cbe428!8m2!3d-7.9776134!4d110.583544!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11kj_jtr8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1081,25 +1062,24 @@
           <t>0813-2842-6472</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.9</v>
+        <v>-8.095837</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.095837</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.565833</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Kemadang/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb0608f312f4f:0x324aa937958e8b36!8m2!3d-8.0958374!4d110.5658326!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyTUhSTVUydG5SUkFC4AEA-gEECAAQLA!16s%2Fg%2F11c0q01hk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J16" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Kemadang/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb0608f312f4f:0x324aa937958e8b36!8m2!3d-8.0958374!4d110.5658326!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVEyTUhSTVUydG5SUkFC4AEA-gEECAAQLA!16s%2Fg%2F11c0q01hk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1122,25 +1102,24 @@
           <t>(0274) 7494314</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.8</v>
+        <v>-7.956545</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.956545</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.658224</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus+%26+Paulus,+Kelor/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb4da1b0bb04d:0xafdfd61e4b3b2a26!8m2!3d-7.9565452!4d110.6582238!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkxjbVZmTmt0M0VBReABAPoBBAgAECU!16s%2Fg%2F11cjp6_mkn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Petrus+%26+Paulus,+Kelor/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb4da1b0bb04d:0xafdfd61e4b3b2a26!8m2!3d-7.9565452!4d110.6582238!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkxjbVZmTmt0M0VBReABAPoBBAgAECU!16s%2Fg%2F11cjp6_mkn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1159,25 +1138,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.947703</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.947703</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.712034</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gunung+butuhan,+genjahan+ponjong+Gunungkidul-/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb53702681c23:0x555cd3fbf41d1fb6!8m2!3d-7.947703!4d110.7120338!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktiRTlwTVhwQlJSQULgAQD6AQQIABAh!16s%2Fg%2F11fn4n6zqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gunung+butuhan,+genjahan+ponjong+Gunungkidul-/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb53702681c23:0x555cd3fbf41d1fb6!8m2!3d-7.947703!4d110.7120338!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktiRTlwTVhwQlJSQULgAQD6AQQIABAh!16s%2Fg%2F11fn4n6zqd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1200,25 +1178,24 @@
           <t>0852-2878-1885</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.7</v>
+        <v>-8.129225</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.129225</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.659498</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Kapel+Katolik+Santo+Yusup,+Blekonang/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb9b5fadd0bbb:0x85dee7d3cf70c6e7!8m2!3d-8.1292246!4d110.6594977!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVla3RNVW5CQlJSQULgAQD6AQQIEBAa!16s%2Fg%2F11c1t5z015?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Kapel+Katolik+Santo+Yusup,+Blekonang/@-7.9776134,110.2951529,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb9b5fadd0bbb:0x85dee7d3cf70c6e7!8m2!3d-8.1292246!4d110.6594977!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVla3RNVW5CQlJSQULgAQD6AQQIEBAa!16s%2Fg%2F11c1t5z015?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1237,25 +1214,24 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.88286</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.88286</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.750789</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Mustofa+Bonpon+Semin+Gunungkidul/@-7.8828596,110.4623983,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a35b71c52a255:0x66e0256e33c559a0!8m2!3d-7.8828596!4d110.7507894!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhlV0ZNWjNKQlJSQULgAQD6AQQIABA5!16s%2Fg%2F11bzynll7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Mustofa+Bonpon+Semin+Gunungkidul/@-7.8828596,110.4623983,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a35b71c52a255:0x66e0256e33c559a0!8m2!3d-7.8828596!4d110.7507894!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlhlV0ZNWjNKQlJSQULgAQD6AQQIABA5!16s%2Fg%2F11bzynll7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1274,25 +1250,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>-8.004685</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.004685</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.59069</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Markas+1+Adem+Ayem+Gunungkidul/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3cd054f91a5:0x3819db9caff15bbc!8m2!3d-8.0046851!4d110.5906903!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFYMHRsVW05UlJSQULgAQD6AQQIABAQ!16s%2Fg%2F11krbv7819?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Markas+1+Adem+Ayem+Gunungkidul/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3cd054f91a5:0x3819db9caff15bbc!8m2!3d-8.0046851!4d110.5906903!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFYMHRsVW05UlJSQULgAQD6AQQIABAQ!16s%2Fg%2F11krbv7819?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1315,25 +1290,24 @@
           <t>0895-3333-01941</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>-7.964309</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.964309</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.599822</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Agung+Al-Ikhlas+Wonosari/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb34443c8db63:0x5dcf8af8deb47e55!8m2!3d-7.9643094!4d110.5998222!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhiSEZwV0hKblJSQULgAQD6AQQIABAp!16s%2Fg%2F1pzvm13y0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Agung+Al-Ikhlas+Wonosari/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb34443c8db63:0x5dcf8af8deb47e55!8m2!3d-7.9643094!4d110.5998222!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhiSEZwV0hKblJSQULgAQD6AQQIABAp!16s%2Fg%2F1pzvm13y0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1356,25 +1330,24 @@
           <t>(0274) 393100</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.931777</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.931777</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.568452</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yusup,+Bandung/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cdf156617bb:0x1a4e1be02dce5aea!8m2!3d-7.9317767!4d110.5684521!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlObVZJV2tobkVBReABAPoBBAgAEB4!16s%2Fg%2F1pzr3fk7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Katolik+Santo+Yusup,+Bandung/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cdf156617bb:0x1a4e1be02dce5aea!8m2!3d-7.9317767!4d110.5684521!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlObVZJV2tobkVBReABAPoBBAgAEB4!16s%2Fg%2F1pzr3fk7s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1397,25 +1370,24 @@
           <t>0856-0135-5633</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.9</v>
+        <v>-7.940269</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.940269</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.541011</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr">
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pondok+Pesantren+Al-Qur'aniyy/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4ddd35fc831d:0x60d3e7273c44ce87!8m2!3d-7.9402688!4d110.5410112!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJDYjFvM2RVZFJFQUXgAQD6AQQIABA7!16s%2Fg%2F11jdcyl55q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1434,25 +1406,24 @@
           <t>0853-2946-6678</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>5</v>
+      </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>-8.072328000000001</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.072328000000001</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.672463</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GPdl+Cuwelo/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb7ac446b524d:0x78fe4069938f9207!8m2!3d-8.0723278!4d110.6724625!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11gb4056fq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1467,25 +1438,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.5</v>
+        <v>-7.961744</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.961744</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.598498</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Abu+Bakar/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3bcdc2b1e97:0x11ab12f466ca9258!8m2!3d-7.9617438!4d110.5984982!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11f6g4_0_n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Abu+Bakar/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3bcdc2b1e97:0x11ab12f466ca9258!8m2!3d-7.9617438!4d110.5984982!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11f6g4_0_n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -1508,25 +1478,24 @@
           <t>0813-3186-3425</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
       <c r="F27" t="n">
-        <v>5</v>
+        <v>-8.005440999999999</v>
       </c>
       <c r="G27" t="n">
-        <v>-8.005440999999999</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.659817</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr">
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GPdI+Eben-Heazer+Semanu/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb44a4827be81:0xe1957bd5e611c3a4!8m2!3d-8.0054409!4d110.6598167!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZjaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTVNV0oxYTFSUkVBReABAPoBBAgAEEc!16s%2Fg%2F11cn3p2765?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1541,25 +1510,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.868993</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.868993</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.563063</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Alfurqoon+Nglampar/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dd6064b0cf1:0xdcd266c3a16b1a29!8m2!3d-7.8689933!4d110.5630629!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhPRzlIUmpoblJSQULgAQD6AQQIABAk!16s%2Fg%2F11bysjvk10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Alfurqoon+Nglampar/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dd6064b0cf1:0xdcd266c3a16b1a29!8m2!3d-7.8689933!4d110.5630629!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlhPRzlIUmpoblJSQULgAQD6AQQIABAk!16s%2Fg%2F11bysjvk10?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1578,25 +1546,24 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.980383</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.980383</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.539541</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ki+Ageng+Pemanahan/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb2950073d777:0x24c1826c1cddba2a!8m2!3d-7.980383!4d110.5395406!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkNOVTFtZDJoQlJSQULgAQD6AQQIABBI!16s%2Fg%2F1pzpjh6_n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ki+Ageng+Pemanahan/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb2950073d777:0x24c1826c1cddba2a!8m2!3d-7.980383!4d110.5395406!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkNOVTFtZDJoQlJSQULgAQD6AQQIABBI!16s%2Fg%2F1pzpjh6_n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1615,25 +1582,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>-7.966737</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.966737</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.634203</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Ngricik/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb55b4ba17689:0x277151d76c32a0c3!8m2!3d-7.9667375!4d110.6342031!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11j_vblsjg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Ngricik/@-8.0046851,110.3022992,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb55b4ba17689:0x277151d76c32a0c3!8m2!3d-7.9667375!4d110.6342031!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11j_vblsjg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1652,25 +1618,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.8</v>
+        <v>-7.861317</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.861317</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.749298</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Darussalam/@-7.8613171,110.4609066,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a353d398f759d:0x78176854677a275d!8m2!3d-7.8613171!4d110.7492977!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11g1qh8sky?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Darussalam/@-7.8613171,110.4609066,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a353d398f759d:0x78176854677a275d!8m2!3d-7.8613171!4d110.7492977!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11g1qh8sky?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1697,25 +1662,24 @@
           <t>0813-2622-3431</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-7.971539</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.971539</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.578454</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/VIHARA+JHINA+DHARMA+SRADHA/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb31860fdffa1:0xd649c1454d16b191!8m2!3d-7.971539!4d110.5784535!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9idWRkaGlzdF90ZW1wbGWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklNaTFxT1dsUlJSQULgAQD6AQQIABAe!16s%2Fg%2F11h9ymwfcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/VIHARA+JHINA+DHARMA+SRADHA/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb31860fdffa1:0xd649c1454d16b191!8m2!3d-7.971539!4d110.5784535!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9idWRkaGlzdF90ZW1wbGWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUklNaTFxT1dsUlJSQULgAQD6AQQIABAe!16s%2Fg%2F11h9ymwfcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1734,25 +1698,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.8</v>
+        <v>-7.978664</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.978664</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.598333</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Azhar/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3745c29cba5:0x1aba1bcae48b3471!8m2!3d-7.9786642!4d110.5983329!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhMkpNZUhwM1JSQULgAQD6AQQIABA9!16s%2Fg%2F1pzv5kw2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Azhar/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3745c29cba5:0x1aba1bcae48b3471!8m2!3d-7.9786642!4d110.5983329!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhMkpNZUhwM1JSQULgAQD6AQQIABA9!16s%2Fg%2F1pzv5kw2g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1775,25 +1738,24 @@
           <t>0812-2740-6237</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.5</v>
+        <v>-7.939522</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.939522</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.639116</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Bejiharjo/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b4014708fdf:0x8cd82d9fadc6c50e!8m2!3d-7.9395221!4d110.6391156!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5hYnpneVdVSkJFQUXgAQD6AQQIABAU!16s%2Fg%2F1pzsb0bdg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Bejiharjo/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b4014708fdf:0x8cd82d9fadc6c50e!8m2!3d-7.9395221!4d110.6391156!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5hYnpneVdVSkJFQUXgAQD6AQQIABAU!16s%2Fg%2F1pzsb0bdg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1816,25 +1778,24 @@
           <t>0818-0270-2480</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.5</v>
+        <v>-7.923559</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.923559</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.534965</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pura+Santiloka+Banaran+Playen+Gunungkidul/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d6fa1f1f1d5:0xa9bb926cb963e1e6!8m2!3d-7.9235592!4d110.5349649!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQxoaW5kdV90ZW1wbGWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxhV1JIZVRoQlJSQULgAQD6AQQIABAR!16s%2Fg%2F11c2kx0lv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pura+Santiloka+Banaran+Playen+Gunungkidul/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d6fa1f1f1d5:0xa9bb926cb963e1e6!8m2!3d-7.9235592!4d110.5349649!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQxoaW5kdV90ZW1wbGWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxhV1JIZVRoQlJSQULgAQD6AQQIABAR!16s%2Fg%2F11c2kx0lv2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1853,25 +1814,24 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>5</v>
+      </c>
       <c r="F36" t="n">
-        <v>5</v>
+        <v>-8.006266</v>
       </c>
       <c r="G36" t="n">
-        <v>-8.006266</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.648859</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Kapel+Katolik+Santo+Yusup,+Semanu/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb4471aa5c815:0x91c66435348ed132!8m2!3d-8.0062659!4d110.6488591!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQ9jYXRob2xpY19jaHVyY2iaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJhazV4T0RSM1JSQULgAQD6AQQIABA_!16s%2Fg%2F11ggr09l84?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1886,25 +1846,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.950105</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.950105</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.5874</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+-+Ikhlas/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cc8863e6c61:0x498e6aa4e82d2657!8m2!3d-7.9501051!4d110.5873998!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11dxjdy0z9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+-+Ikhlas/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cc8863e6c61:0x498e6aa4e82d2657!8m2!3d-7.9501051!4d110.5873998!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11dxjdy0z9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1923,25 +1882,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F38" t="n">
-        <v>4.8</v>
+        <v>-8.081216</v>
       </c>
       <c r="G38" t="n">
-        <v>-8.081216</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.552263</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ki+Ageng+Giring/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb04eba349ac5:0x54b71c780229fa92!8m2!3d-8.0812157!4d110.5522633!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11fy_65v_b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ki+Ageng+Giring/@-7.971539,110.2900624,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb04eba349ac5:0x54b71c780229fa92!8m2!3d-8.0812157!4d110.5522633!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11fy_65v_b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1964,25 +1922,24 @@
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.6</v>
+        <v>-8.018768</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.018768</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.413491</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Aolia%60+Panggang/@-8.0187681,110.1250994,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bab9290ae7783:0xb1162a18f60eac08!8m2!3d-8.0187681!4d110.4134905!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhielJmY2tsQkVBReABAPoBBAgAEEM!16s%2Fg%2F11cjh_ddq4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Aolia%60+Panggang/@-8.0187681,110.1250994,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bab9290ae7783:0xb1162a18f60eac08!8m2!3d-8.0187681!4d110.4134905!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhielJmY2tsQkVBReABAPoBBAgAEEM!16s%2Fg%2F11cjh_ddq4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2001,25 +1958,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>5</v>
+      </c>
       <c r="F40" t="n">
-        <v>5</v>
+        <v>-7.978417</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.978417</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.611356</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Biara+Suster+Santo+Dominikus+(OP)+Wonosari/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3635bce36c3:0x2523e6032a344cb8!8m2!3d-7.9784167!4d110.6113564!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEHbnVubmVyeeABAA!16s%2Fg%2F11fy4rypbr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Biara+Suster+Santo+Dominikus+(OP)+Wonosari/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3635bce36c3:0x2523e6032a344cb8!8m2!3d-7.9784167!4d110.6113564!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEHbnVubmVyeeABAA!16s%2Fg%2F11fy4rypbr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2038,25 +1994,24 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="E41" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>-7.916135</v>
       </c>
       <c r="G41" t="n">
-        <v>-7.916135</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.707525</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bangkan+Jatiayu+Karangmojo+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b00351df4cf:0x20ffff48cef93ce!8m2!3d-7.9161348!4d110.7075252!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11y40vknzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bangkan+Jatiayu+Karangmojo+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b00351df4cf:0x20ffff48cef93ce!8m2!3d-7.9161348!4d110.7075252!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11y40vknzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2075,25 +2030,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>5</v>
+      </c>
       <c r="F42" t="n">
-        <v>5</v>
+        <v>-7.961084</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.961084</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.651299</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GKJ+Wiladeg+Panthan+Krambildhuwur/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb4c4bd2d2a31:0x7ee2524fac257886!8m2!3d-7.9610845!4d110.651299!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F11g9w3xjrv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GKJ+Wiladeg+Panthan+Krambildhuwur/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb4c4bd2d2a31:0x7ee2524fac257886!8m2!3d-7.9610845!4d110.651299!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F11g9w3xjrv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2112,25 +2066,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F43" t="n">
-        <v>4.8</v>
+        <v>-8.004549000000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-8.004549000000001</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.558967</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Ki+Ageng+Giring+III/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb178dd463e6b:0x9f15793f16fa7fe0!8m2!3d-8.0045495!4d110.5589665!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZzaHJpbmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTk1jRXBQUTNwQlJSQULgAQD6AQQIABBI!16s%2Fg%2F11s5c1bhzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Ki+Ageng+Giring+III/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb178dd463e6b:0x9f15793f16fa7fe0!8m2!3d-8.0045495!4d110.5589665!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZzaHJpbmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTk1jRXBQUTNwQlJSQULgAQD6AQQIABBI!16s%2Fg%2F11s5c1bhzw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2149,25 +2102,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F44" t="n">
-        <v>4.9</v>
+        <v>-7.917674</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.917674</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.556861</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+LDII+Gading+1+Playen+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dbe733fd7b7:0xfacd011aad06bec7!8m2!3d-7.9176744!4d110.5568608!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhhV1JZWkRWQlJSQULgAQD6AQQIABA1!16s%2Fg%2F11gy1zqc9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+LDII+Gading+1+Playen+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dbe733fd7b7:0xfacd011aad06bec7!8m2!3d-7.9176744!4d110.5568608!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhhV1JZWkRWQlJSQULgAQD6AQQIABA1!16s%2Fg%2F11gy1zqc9k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2186,25 +2138,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.5</v>
+        <v>-8.005331999999999</v>
       </c>
       <c r="G45" t="n">
-        <v>-8.005331999999999</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.590271</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Hidayatullah/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3bdcc544011:0xb7a5aca1d4fa7897!8m2!3d-8.0053319!4d110.5902705!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g6qk71sg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Hidayatullah/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3bdcc544011:0xb7a5aca1d4fa7897!8m2!3d-8.0053319!4d110.5902705!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g6qk71sg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2223,25 +2174,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4</v>
+      </c>
       <c r="F46" t="n">
-        <v>4</v>
+        <v>-7.937376</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.937376</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.564913</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MUSHOLA+MBAH+NOTO/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d258b4bdebb:0x90b89e15950ce53e!8m2!3d-7.9373764!4d110.5649127!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11h0bv3jg9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MUSHOLA+MBAH+NOTO/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d258b4bdebb:0x90b89e15950ce53e!8m2!3d-7.9373764!4d110.5649127!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11h0bv3jg9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2264,25 +2214,24 @@
           <t>0813-3260-5761</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.982489</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.982489</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.605122</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Perumahan+Grand+Bukit+Sari/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb38bd8fc3e63:0x8f67253ce4c54a9f!8m2!3d-7.982489!4d110.6051219!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54WDBwNlVFTjNFQUXgAQD6AQQIABAy!16s%2Fg%2F11mb307ccw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Perumahan+Grand+Bukit+Sari/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb38bd8fc3e63:0x8f67253ce4c54a9f!8m2!3d-7.982489!4d110.6051219!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU54WDBwNlVFTjNFQUXgAQD6AQQIABAy!16s%2Fg%2F11mb307ccw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2301,25 +2250,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.8</v>
+        <v>-7.988654</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.988654</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.631328</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Kautsar(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80)/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb46282363193:0xad65125c6dba915d!8m2!3d-7.9886544!4d110.6313284!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjFOVGhoYW14blJSQULgAQD6AQQIABAc!16s%2Fg%2F11cjj1kbpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Kautsar(%EA%A6%A9%EA%A6%B1%EA%A7%80%EA%A6%97%EA%A6%B6%EA%A6%A3%EA%A7%80)/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb46282363193:0xad65125c6dba915d!8m2!3d-7.9886544!4d110.6313284!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjFOVGhoYW14blJSQULgAQD6AQQIABAc!16s%2Fg%2F11cjj1kbpd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2342,25 +2290,24 @@
           <t>0858-0070-0133</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.7</v>
+        <v>-8.034366</v>
       </c>
       <c r="G49" t="n">
-        <v>-8.034366</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.584703</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/masjid+diponegoro/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb16220d6747d:0x4f29e2e431e5f583!8m2!3d-8.0343656!4d110.5847025!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRNbVZZV21OM0VBReABAPoBBAgAEDo!16s%2Fg%2F11hz1tjw19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/masjid+diponegoro/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb16220d6747d:0x4f29e2e431e5f583!8m2!3d-8.0343656!4d110.5847025!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnRNbVZZV21OM0VBReABAPoBBAgAEDo!16s%2Fg%2F11hz1tjw19?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2379,25 +2326,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>5</v>
+      </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>-7.965147</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.965147</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.687713</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al-Ikhlas+Jaranmati+1/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5df544841a1:0xc5fdbaa66d7ff7bd!8m2!3d-7.9651466!4d110.6877132!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEHbXVzYWxsYeABAA!16s%2Fg%2F11sh248387?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al-Ikhlas+Jaranmati+1/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5df544841a1:0xc5fdbaa66d7ff7bd!8m2!3d-7.9651466!4d110.6877132!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEHbXVzYWxsYeABAA!16s%2Fg%2F11sh248387?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2416,25 +2362,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-8.139809</v>
       </c>
       <c r="G51" t="n">
-        <v>-8.139809</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.67129</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Jami'+Syaidah+Nawal+Ahmad+Abdul+Jawad+Gunungkidul+%D8%AC%D8%A7%D9%85%D8%B9+%D8%A7%D9%84%D8%B3%D9%8A%D8%AF%D8%A9%D8%9B+%D9%86%D9%88%D8%A7%D9%84+%D8%A7%D8%AD%D9%85%D8%AF+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%AC%D9%88%D8%A7%D8%AF%E2%80%AD/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb84e6d5e5d07:0x50554775220e2669!8m2!3d-8.1398091!4d110.6712898!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTJhelptYVVaQkVBReABAPoBBAgAECc!16s%2Fg%2F11g6mhggx2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Jami'+Syaidah+Nawal+Ahmad+Abdul+Jawad+Gunungkidul+%D8%AC%D8%A7%D9%85%D8%B9+%D8%A7%D9%84%D8%B3%D9%8A%D8%AF%D8%A9%D8%9B+%D9%86%D9%88%D8%A7%D9%84+%D8%A7%D8%AD%D9%85%D8%AF+%D8%B9%D8%A8%D8%AF%D8%A7%D9%84%D8%AC%D9%88%D8%A7%D8%AF%E2%80%AD/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb84e6d5e5d07:0x50554775220e2669!8m2!3d-8.1398091!4d110.6712898!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTJhelptYVVaQkVBReABAPoBBAgAECc!16s%2Fg%2F11g6mhggx2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2453,25 +2398,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>-7.855635</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.855635</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.697604</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+ath-thoyyibah+Tegalrejo+ngawen+gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a497bd1086947:0x632e263eb3a35ed!8m2!3d-7.8556353!4d110.697604!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g_qst22h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+ath-thoyyibah+Tegalrejo+ngawen+gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a497bd1086947:0x632e263eb3a35ed!8m2!3d-7.8556353!4d110.697604!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g_qst22h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2490,25 +2434,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.938683</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.938683</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.57428</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Abdulloh+Waaiman+Alghomidi+Logandeng+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dd55502f763:0xec9dfa596c42c1c2!8m2!3d-7.9386833!4d110.57428!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZaelpET0MxM1JSQULgAQD6AQQIABA2!16s%2Fg%2F11ny3d89hq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Abdulloh+Waaiman+Alghomidi+Logandeng+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dd55502f763:0xec9dfa596c42c1c2!8m2!3d-7.9386833!4d110.57428!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjZaelpET0MxM1JSQULgAQD6AQQIABA2!16s%2Fg%2F11ny3d89hq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2527,25 +2470,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.9</v>
+        <v>-7.964488</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.964488</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.708484</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GKJ+SUSUKAN+INDUK+(Gereja+Kristen+Jawa+Susukan)/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb54b57e4562f:0xec1fa33466b37caf!8m2!3d-7.9644875!4d110.7084844!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARBjaHJpc3RpYW5fY2h1cmNomgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJhYUZBMlZXNUJSUkFC4AEA-gEECAAQRQ!16s%2Fg%2F11hzmpggb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2560,25 +2502,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.7</v>
+        <v>-8.081167000000001</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.081167000000001</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.640371</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Widoro,+Sumberwungu,+Tepus+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb73d54012edb:0x168c75c929c08d91!8m2!3d-8.0811673!4d110.6403708!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c523xxfy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Widoro,+Sumberwungu,+Tepus+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb73d54012edb:0x168c75c929c08d91!8m2!3d-8.0811673!4d110.6403708!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c523xxfy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2597,25 +2538,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.8</v>
+        <v>-8.006017</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.006017</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.659199</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Joglo+Bunga+Islam+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb59b75e2b7a3:0x84e3c39937280bfd!8m2!3d-8.0060172!4d110.6591986!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11pzc6ck79?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Joglo+Bunga+Islam+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb59b75e2b7a3:0x84e3c39937280bfd!8m2!3d-8.0060172!4d110.6591986!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11pzc6ck79?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2638,25 +2578,24 @@
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F57" t="n">
-        <v>4.9</v>
+        <v>-7.960941</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.960941</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.63146</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr">
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+ITB+76/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5b5f8d61abf:0xc7a14660c933a359!8m2!3d-7.9609409!4d110.6314602!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFOR1I1YVdKM0VBReABAPoBBAgAEDk!16s%2Fg%2F11mvgnt214?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2675,25 +2614,24 @@
           <t>0811-283-044</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.9</v>
+        <v>-7.941679</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.941679</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.553059</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PP+AL+I'ANAH+PLAYEN/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d309172a3bb:0x1775716d06d0b8d!8m2!3d-7.9416795!4d110.5530586!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRNa2w2TldaQkVBReABAPoBBAgAED4!16s%2Fg%2F11fx9g11b6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PP+AL+I'ANAH+PLAYEN/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d309172a3bb:0x1775716d06d0b8d!8m2!3d-7.9416795!4d110.5530586!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjRNa2w2TldaQkVBReABAPoBBAgAED4!16s%2Fg%2F11fx9g11b6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -2712,25 +2650,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>5</v>
+      </c>
       <c r="F59" t="n">
-        <v>5</v>
+        <v>-7.886637</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.886637</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.630863</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Darul+Ulum/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b61a9f3aee5:0x8189f7bc7acd5ee0!8m2!3d-7.8866373!4d110.6308625!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEHbXVzYWxsYeABAA!16s%2Fg%2F11fqxvz8j6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Darul+Ulum/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b61a9f3aee5:0x8189f7bc7acd5ee0!8m2!3d-7.8866373!4d110.6308625!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEHbXVzYWxsYeABAA!16s%2Fg%2F11fqxvz8j6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2749,25 +2686,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F60" t="n">
-        <v>4.9</v>
+        <v>-7.919878</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.919878</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.708652</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Pragak/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4a9efc907865:0xb0687b1f10b8ca9c!8m2!3d-7.9198785!4d110.708652!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11bymvndjs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2786,25 +2722,24 @@
           <t>0838-4343-2211</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.8</v>
+        <v>-8.054247</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.054247</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.519065</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Abada+(LDII)+Kepek+Saptosari/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bae1faf9979bb:0x336a686e2e58bd04!8m2!3d-8.0542468!4d110.5190647!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTVielJVUjBOQkVBReABAPoBBAgAEDM!16s%2Fg%2F11cm3q5n4w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Abada+(LDII)+Kepek+Saptosari/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bae1faf9979bb:0x336a686e2e58bd04!8m2!3d-8.0542468!4d110.5190647!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTVielJVUjBOQkVBReABAPoBBAgAEDM!16s%2Fg%2F11cm3q5n4w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2823,25 +2758,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F62" t="n">
-        <v>4.8</v>
+        <v>-7.969208</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.969208</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.603456</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Mujahidin/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3429f78aa4b:0xccf17c0296d2e5df!8m2!3d-7.9692078!4d110.6034558!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g6vskw03?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Mujahidin/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3429f78aa4b:0xccf17c0296d2e5df!8m2!3d-7.9692078!4d110.6034558!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g6vskw03?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -2860,25 +2794,24 @@
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.9</v>
+        <v>-7.871372</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.871372</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.543024</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah,+Gambiran,+Bunder,+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4de04fdbdda1:0xa7b1fd96dd9849be!8m2!3d-7.871372!4d110.5430244!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTVhSEl5V0hoQlJSQULgAQD6AQQIABAi!16s%2Fg%2F11c0xnmp7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah,+Gambiran,+Bunder,+Gunungkidul/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4de04fdbdda1:0xa7b1fd96dd9849be!8m2!3d-7.871372!4d110.5430244!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTVhSEl5V0hoQlJSQULgAQD6AQQIABAi!16s%2Fg%2F11c0xnmp7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2902,22 +2835,21 @@
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="n">
+        <v>-8.149461000000001</v>
+      </c>
       <c r="G64" t="n">
-        <v>-8.149461000000001</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.711676</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Jami/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb8800708ffb7:0x42113e2fadcfa6ac!8m2!3d-8.1494607!4d110.7116755!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11b6d5jjlc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2932,25 +2864,24 @@
       </c>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F65" t="n">
-        <v>4.7</v>
+        <v>-7.931634</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.931634</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.699944</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/masjid+sholihin+karangwetan+2/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4abace750129:0x7688c3b037840650!8m2!3d-7.9316342!4d110.699944!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOUzF0TVZSQkVBReABAPoBBAgAEEE!16s%2Fg%2F11c76qd0r1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/masjid+sholihin+karangwetan+2/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4abace750129:0x7688c3b037840650!8m2!3d-7.9316342!4d110.699944!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOUzF0TVZSQkVBReABAPoBBAgAEEE!16s%2Fg%2F11c76qd0r1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2969,25 +2900,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-8.008699</v>
       </c>
       <c r="G66" t="n">
-        <v>-8.008699</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.674471</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+mojo/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5945e04cd79:0xa8cbc0b004284ba7!8m2!3d-8.0086994!4d110.6744708!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGc2hyaW5l4AEA!16s%2Fg%2F11kj23wkjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+mojo/@-7.9784167,110.3229653,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5945e04cd79:0xa8cbc0b004284ba7!8m2!3d-8.0086994!4d110.6744708!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGc2hyaW5l4AEA!16s%2Fg%2F11kj23wkjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3006,25 +2936,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>5</v>
+      </c>
       <c r="F67" t="n">
-        <v>5</v>
+        <v>-8.167961999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-8.167961999999999</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.774679</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Tukluk+city,ngalangombo.tileng.girisubo,gunungkidul/@-8.1679625,110.4862879,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bc7d92c934f41:0x8f1826771d5ccd1e!8m2!3d-8.1679625!4d110.774679!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11qyq9v6n_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Tukluk+city,ngalangombo.tileng.girisubo,gunungkidul/@-8.1679625,110.4862879,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bc7d92c934f41:0x8f1826771d5ccd1e!8m2!3d-8.1679625!4d110.774679!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11qyq9v6n_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3043,25 +2972,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.9</v>
+        <v>-7.952197</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.952197</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.604153</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+An+Nuur/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb34d92be60bd:0x96e4258c92a39610!8m2!3d-7.9521967!4d110.6041532!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhMGxmZEdwM1JSQULgAQD6AQQIABAR!16s%2Fg%2F11c0xtrl4y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+An+Nuur/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb34d92be60bd:0x96e4258c92a39610!8m2!3d-7.9521967!4d110.6041532!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXRhMGxmZEdwM1JSQULgAQD6AQQIABAR!16s%2Fg%2F11c0xtrl4y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -3080,25 +3008,24 @@
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.8</v>
+        <v>-8.095084999999999</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.095084999999999</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.566827</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Abdullah+bin+Mas'ud/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb0607864f251:0xbc0651859eb40b36!8m2!3d-8.0950852!4d110.566827!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11cn7l0cym?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Abdullah+bin+Mas'ud/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb0607864f251:0xbc0651859eb40b36!8m2!3d-8.0950852!4d110.566827!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11cn7l0cym?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3117,25 +3044,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>5</v>
+      </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>-7.965574</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.965574</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.616506</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pohon+Jati+Kluwih/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb346f8162acd:0xe5ef22edfcbbb8ff!8m2!3d-7.9655739!4d110.6165062!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11krl_6d98?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pohon+Jati+Kluwih/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb346f8162acd:0xe5ef22edfcbbb8ff!8m2!3d-7.9655739!4d110.6165062!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11krl_6d98?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3158,25 +3084,24 @@
           <t>0852-2880-8882</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4</v>
+      </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>-7.973495</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.973495</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.711969</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Bupati+I+Gunungkidul/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5d7e86798d7:0x17caa3b288f89d8b!8m2!3d-7.9734947!4d110.7119691!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm1YMlpxVUVKM0VBReABAPoBBAgAEDg!16s%2Fg%2F11hsp1rc14?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Bupati+I+Gunungkidul/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5d7e86798d7:0x17caa3b288f89d8b!8m2!3d-7.9734947!4d110.7119691!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm1YMlpxVUVKM0VBReABAPoBBAgAEDg!16s%2Fg%2F11hsp1rc14?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3195,25 +3120,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.4</v>
+        <v>-7.963738</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.963738</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.606741</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+As-Salamah+Kodim+0730/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3bd663126b9:0x694206a3e94f2a47!8m2!3d-7.9637375!4d110.6067408!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdhSEJpVEV4QkVBReABAPoBBAgAEEc!16s%2Fg%2F11q583b844?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J72" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+As-Salamah+Kodim+0730/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3bd663126b9:0x694206a3e94f2a47!8m2!3d-7.9637375!4d110.6067408!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdhSEJpVEV4QkVBReABAPoBBAgAEEc!16s%2Fg%2F11q583b844?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3232,25 +3156,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.8</v>
+        <v>-8.008585999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.008585999999999</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.626935</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Asy+Syahid/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb472c66bf07b:0x88a69aef18bb647a!8m2!3d-8.0085857!4d110.6269345!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g9jydvsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Asy+Syahid/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb472c66bf07b:0x88a69aef18bb647a!8m2!3d-8.0085857!4d110.6269345!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11g9jydvsp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3269,25 +3192,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>5</v>
+      </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>-7.975718</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.975718</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.657268</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Kyai+Muhamad+Kasman/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb500028a2b9f:0x6524099ee9072446!8m2!3d-7.9757183!4d110.6572678!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGc2hyaW5l4AEA!16s%2Fg%2F11vsq1_sqs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Kyai+Muhamad+Kasman/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb500028a2b9f:0x6524099ee9072446!8m2!3d-7.9757183!4d110.6572678!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGc2hyaW5l4AEA!16s%2Fg%2F11vsq1_sqs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -3306,25 +3228,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F75" t="n">
-        <v>4.9</v>
+        <v>-7.917101</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.917101</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.532914</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Iman/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d7a0f62c06d:0x56bf33728bb2b156!8m2!3d-7.9171012!4d110.5329143!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmhkSEJVZVd0M1JSQULgAQD6AQQIABAR!16s%2Fg%2F11dx9h8lg9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Iman/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d7a0f62c06d:0x56bf33728bb2b156!8m2!3d-7.9171012!4d110.5329143!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmhkSEJVZVd0M1JSQULgAQD6AQQIABAR!16s%2Fg%2F11dx9h8lg9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3343,25 +3264,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>-7.994559</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.994559</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.669982</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+syekh+kalambang/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5581be53c4d:0xe8e1b0b94bca98c5!8m2!3d-7.9945592!4d110.6699818!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGc2hyaW5l4AEA!16s%2Fg%2F11kb6_h7rv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+syekh+kalambang/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5581be53c4d:0xe8e1b0b94bca98c5!8m2!3d-7.9945592!4d110.6699818!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGc2hyaW5l4AEA!16s%2Fg%2F11kb6_h7rv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3380,25 +3300,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F77" t="n">
-        <v>4.9</v>
+        <v>-7.94958</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.94958</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.579549</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+-+Mufidah/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cd2c9b7d425:0x5e221c69b17fcb31!8m2!3d-7.9495798!4d110.5795491!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlFOblo1VDNsM1JSQULgAQD6AQQIABAv!16s%2Fg%2F11g6xwv6dy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+-+Mufidah/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cd2c9b7d425:0x5e221c69b17fcb31!8m2!3d-7.9495798!4d110.5795491!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlFOblo1VDNsM1JSQULgAQD6AQQIABAv!16s%2Fg%2F11g6xwv6dy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3417,25 +3336,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.9</v>
+        <v>-7.964174</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.964174</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.598168</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Huda/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb346b21fd895:0xd16855bd105e2f49!8m2!3d-7.9641737!4d110.5981676!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c3l5vkzg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Huda/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb346b21fd895:0xd16855bd105e2f49!8m2!3d-7.9641737!4d110.5981676!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c3l5vkzg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3454,25 +3372,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.5</v>
+        <v>-7.967397</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.967397</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.507474</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Srikoyo/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bad44ee3694eb:0xe4b8f4327e9832f0!8m2!3d-7.9673969!4d110.5074738!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11gblffdp3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3487,25 +3404,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.2</v>
+        <v>-8.134418999999999</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.134418999999999</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.673947</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr">
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+al-mujahidin/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb848ef325c3d:0x2a5eabf90edfbbf2!8m2!3d-8.134419!4d110.6739474!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11ckksl2b9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3520,25 +3436,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.7</v>
+        <v>-8.088488999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.088488999999999</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.519017</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Aolia+Kanigoro/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bafd836163ccb:0x26e0b3bae1d6b32c!8m2!3d-8.0884894!4d110.5190165!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUllhblJxWmxGM0VBReABAPoBBAgAECc!16s%2Fg%2F11g9qj19lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Aolia+Kanigoro/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bafd836163ccb:0x26e0b3bae1d6b32c!8m2!3d-8.0884894!4d110.5190165!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUllhblJxWmxGM0VBReABAPoBBAgAECc!16s%2Fg%2F11g9qj19lz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -3557,25 +3472,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.6</v>
+        <v>-8.118074</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.118074</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.716473</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+AL-HUDA/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bc7f9df6dd3bf:0xa92d5746819381e9!8m2!3d-8.1180739!4d110.7164731!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhia3BoWWxwUkVBReABAPoBBAgAECI!16s%2Fg%2F11cjvlnptw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+AL-HUDA/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bc7f9df6dd3bf:0xa92d5746819381e9!8m2!3d-8.1180739!4d110.7164731!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhia3BoWWxwUkVBReABAPoBBAgAECI!16s%2Fg%2F11cjvlnptw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3602,25 +3516,24 @@
           <t>0831-0311-8828</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.8</v>
+        <v>-7.936155</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.936155</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.687059</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+LDII+%22Nur+Hidayatullah%22+Sumberjo+(Dawontim)/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4ac831363ca7:0x1c352d70cd90c54e!8m2!3d-7.9361555!4d110.6870594!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUm9kSEJNUW5CUlJSQULgAQD6AQQIABA0!16s%2Fg%2F11by_0ql8n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3639,25 +3552,24 @@
           <t>0857-9933-0507</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.7</v>
+        <v>-7.957622</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.957622</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.592673</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Hadi/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb335d5ee4363:0x7e2727f1bb743a9f!8m2!3d-7.9576222!4d110.5926728!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRiblJpUW5OUlJSQULgAQD6AQQIABAk!16s%2Fg%2F1pzshfz6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Hadi/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb335d5ee4363:0x7e2727f1bb743a9f!8m2!3d-7.9576222!4d110.5926728!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjRiblJpUW5OUlJSQULgAQD6AQQIABAk!16s%2Fg%2F1pzshfz6m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3680,25 +3592,24 @@
           <t>0822-5170-3291</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.1</v>
+        <v>-7.91787</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.91787</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.655244</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Situs+Sokoliman+2+GK+Indonesia/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b1a55dcbc2f:0x92ed12c6dd012e33!8m2!3d-7.9178696!4d110.6552441!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QTTJSaGFFZEJFQUXgAQD6AQQIABAj!16s%2Fg%2F11bbsw8l3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Situs+Sokoliman+2+GK+Indonesia/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b1a55dcbc2f:0x92ed12c6dd012e33!8m2!3d-7.9178696!4d110.6552441!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5QTTJSaGFFZEJFQUXgAQD6AQQIABAj!16s%2Fg%2F11bbsw8l3t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3717,25 +3628,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.6</v>
+        <v>-7.988533</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.988533</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.702778</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5830cf96857:0xbfe0078925c15214!8m2!3d-7.9885329!4d110.7027778!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11d_wvkd3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5830cf96857:0xbfe0078925c15214!8m2!3d-7.9885329!4d110.7027778!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11d_wvkd3v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3754,25 +3664,24 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F87" t="n">
-        <v>4.5</v>
+        <v>-8.016254</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.016254</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.66519</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Jragum/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5cd37a4d61b:0x961596ccf04c4795!8m2!3d-8.0162538!4d110.6651901!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlhMGxtU1dWUkVBReABAPoBBAgAEA0!16s%2Fg%2F11gbggvyny?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Jragum/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5cd37a4d61b:0x961596ccf04c4795!8m2!3d-8.0162538!4d110.6651901!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmlhMGxtU1dWUkVBReABAPoBBAgAEA0!16s%2Fg%2F11gbggvyny?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3791,25 +3700,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.5</v>
+        <v>-7.935606</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.935606</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.624543</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b59ca2ff9ad:0x8e69cf6ef05d32da!8m2!3d-7.9356061!4d110.6245428!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c0rrlhgh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b59ca2ff9ad:0x8e69cf6ef05d32da!8m2!3d-7.9356061!4d110.6245428!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c0rrlhgh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3828,25 +3736,24 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>5</v>
+      </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>-7.949381</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.949381</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.553575</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr">
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Yadul+Ulya+Ar+Ruhamaa'+Playen+Gunungkidul/@-7.9521967,110.3157621,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3002e11cf15:0xf912898e2f3730be!8m2!3d-7.9493811!4d110.5535753!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11sjhb7n76?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -3861,25 +3768,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.7</v>
+        <v>-8.023224000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.023224000000001</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.413614</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Aolia+Sumur/@-8.0232241,110.1252228,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7babed9cfb3e11:0x9a4a123cd583d034!8m2!3d-8.0232241!4d110.4136139!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11gbzcmld_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Aolia+Sumur/@-8.0232241,110.1252228,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7babed9cfb3e11:0x9a4a123cd583d034!8m2!3d-8.0232241!4d110.4136139!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11gbzcmld_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3898,25 +3804,24 @@
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr"/>
+      <c r="E91" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F91" t="n">
-        <v>4.9</v>
+        <v>-7.880266</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.880266</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.666435</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Muhajirin/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4a34eeb24ced:0xc5628687eaf83d85!8m2!3d-7.8802664!4d110.6664346!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkljaTF4VlU5UkVBReABAPoBBAgAECs!16s%2Fg%2F11f2wdlvn8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Muhajirin/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4a34eeb24ced:0xc5628687eaf83d85!8m2!3d-7.8802664!4d110.6664346!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkljaTF4VlU5UkVBReABAPoBBAgAECs!16s%2Fg%2F11f2wdlvn8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3935,25 +3840,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>-7.953644</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.953644</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.592774</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+balad+Al+Amin+Wonosari+Gunungkidul/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb355c87ceee1:0xfba613452e2d97!8m2!3d-7.9536442!4d110.5927742!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11pf1vl068?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+balad+Al+Amin+Wonosari+Gunungkidul/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb355c87ceee1:0xfba613452e2d97!8m2!3d-7.9536442!4d110.5927742!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11pf1vl068?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3972,25 +3876,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>5</v>
+      </c>
       <c r="F93" t="n">
-        <v>5</v>
+        <v>-7.96297</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.96297</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.570076</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Musholla+Al+Muttaqin/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3279b691425:0x9108efe1d37a7c93!8m2!3d-7.9629701!4d110.5700755!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11df5m9mrh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -4005,25 +3908,24 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>3</v>
+      </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>-7.910933</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.910933</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.657759</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Ikhlas/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b2b9d1cc903:0x98c77f9ddc064f65!8m2!3d-7.9109329!4d110.6577589!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11fkdmy8x0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Ikhlas/@-7.8802664,110.3780435,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4b2b9d1cc903:0x98c77f9ddc064f65!8m2!3d-7.9109329!4d110.6577589!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11fkdmy8x0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4042,25 +3944,24 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.9</v>
+        <v>-8.033853000000001</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.033853000000001</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.464017</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Sunan+Kalijaga/@-8.0338531,110.1756258,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bac2eaaaaaaab:0xca678630aa713787!8m2!3d-8.0338531!4d110.4640169!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNNUzE2VTBWbkVBReABAPoBBAgAEA8!16s%2Fg%2F1pzyf396m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Sunan+Kalijaga/@-8.0338531,110.1756258,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bac2eaaaaaaab:0xca678630aa713787!8m2!3d-8.0338531!4d110.4640169!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkNNUzE2VTBWbkVBReABAPoBBAgAEA8!16s%2Fg%2F1pzyf396m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -4079,25 +3980,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.6</v>
+        <v>-8.133711999999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.133711999999999</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.554743</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pantai+Kukup/@-8.0338531,110.1756258,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bbbcb37b998df:0x17ef5bd72de95303!8m2!3d-8.1337123!4d110.5547433!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hy9r8jgh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pantai+Kukup/@-8.0338531,110.1756258,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bbbcb37b998df:0x17ef5bd72de95303!8m2!3d-8.1337123!4d110.5547433!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARJ0b3VyaXN0X2F0dHJhY3Rpb27gAQA!16s%2Fg%2F11hy9r8jgh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>2 jam lalu</t>
         </is>
@@ -4116,25 +4016,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>-8.103827000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>-8.103827000000001</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.785674</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Muhammad+Ahmad+Azahroni/@-8.1038266,110.4972827,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bc92e495f4aed:0xbd9545b302fe79b6!8m2!3d-8.1038266!4d110.7856738!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJPSFI1ZGt0M0VBReABAPoBBAg8EDs!16s%2Fg%2F11h7ptly98?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Muhammad+Ahmad+Azahroni/@-8.1038266,110.4972827,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bc92e495f4aed:0xbd9545b302fe79b6!8m2!3d-8.1038266!4d110.7856738!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTJPSFI1ZGt0M0VBReABAPoBBAg8EDs!16s%2Fg%2F11h7ptly98?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4153,25 +4052,24 @@
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.5</v>
+        <v>-8.016249</v>
       </c>
       <c r="G98" t="n">
-        <v>-8.016249</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.340003</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pesanggrahan+Gembirowati/@-8.0162486,110.0516123,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7baa6300000001:0x2022d92bdf20e3d1!8m2!3d-8.0162486!4d110.3400034!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITkRkdGMzVlJSUkFC4AEA-gEECFAQSA!16s%2Fg%2F11g8cnppmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J98" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pesanggrahan+Gembirowati/@-8.0162486,110.0516123,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7baa6300000001:0x2022d92bdf20e3d1!8m2!3d-8.0162486!4d110.3400034!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySARNoaXN0b3JpY2FsX2xhbmRtYXJrmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJITkRkdGMzVlJSUkFC4AEA-gEECFAQSA!16s%2Fg%2F11g8cnppmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4190,25 +4088,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.7</v>
+        <v>-7.875123</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.875123</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.559529</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dd0e7accfb7:0xcb676d5c1f6d2401!8m2!3d-7.8751229!4d110.5595291!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c0xcv7wt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4dd0e7accfb7:0xcb676d5c1f6d2401!8m2!3d-7.8751229!4d110.5595291!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c0xcv7wt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4227,25 +4124,24 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F100" t="n">
-        <v>3.9</v>
+        <v>-8.088374999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>-8.088374999999999</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.701902</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Gereja+Baptis+Indonesia+Anugerah+Cabang+Jati/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb7e78cdcdb77:0x7c2e7be4995a0b3f!8m2!3d-8.088375!4d110.7019022!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEOYmFwdGlzdF9jaHVyY2jgAQA!16s%2Fg%2F11c1wwsrcb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Gereja+Baptis+Indonesia+Anugerah+Cabang+Jati/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb7e78cdcdb77:0x7c2e7be4995a0b3f!8m2!3d-8.088375!4d110.7019022!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEOYmFwdGlzdF9jaHVyY2jgAQA!16s%2Fg%2F11c1wwsrcb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -4264,25 +4160,24 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.6</v>
+        <v>-8.093234000000001</v>
       </c>
       <c r="G101" t="n">
-        <v>-8.093234000000001</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.674998</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Ashry+Bolang/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb794209c23c1:0xf08487c0c550e502!8m2!3d-8.0932337!4d110.6749978!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c1qsbd0x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Ashry+Bolang/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb794209c23c1:0xf08487c0c550e502!8m2!3d-8.0932337!4d110.6749978!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11c1qsbd0x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4305,25 +4200,24 @@
           <t>0859-2743-1627</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F102" t="n">
-        <v>4.6</v>
+        <v>-8.01211</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.01211</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.555921</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Muhajirin/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb247ec99756d:0x44dcf37f23f5e2a3!8m2!3d-8.01211!4d110.555921!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkliVGhMUW1kUlJSQULgAQD6AQQIABAl!16s%2Fg%2F11gcqwspv1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Muhajirin/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb247ec99756d:0x44dcf37f23f5e2a3!8m2!3d-8.01211!4d110.555921!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkliVGhMUW1kUlJSQULgAQD6AQQIABAl!16s%2Fg%2F11gcqwspv1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4342,25 +4236,24 @@
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F103" t="n">
-        <v>4.8</v>
+        <v>-7.938795</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.938795</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.539112</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Musi'atun/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d44147ffadf:0x661817581ee670d7!8m2!3d-7.9387952!4d110.5391121!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRYMlp4UWxGQkVBReABAPoBBAgAEDs!16s%2Fg%2F11b86h4hry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Musi'atun/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4d44147ffadf:0x661817581ee670d7!8m2!3d-7.9387952!4d110.5391121!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnRYMlp4UWxGQkVBReABAPoBBAgAEDs!16s%2Fg%2F11b86h4hry?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -4384,22 +4277,21 @@
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="n">
+        <v>-8.005808999999999</v>
+      </c>
       <c r="G104" t="n">
-        <v>-8.005808999999999</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.660129</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr">
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/EYANG+STONE+ukir+batu+alam+Tunggul+Barat+Rt+001+Re+024+Kelurahan+Semanu+Kecamatan+Semanu+Gunungkidul+yogyakarta/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb59358827279:0xb1b1a62c37ebc982!8m2!3d-8.005809!4d110.6601288!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQbWVubm9uaXRlX2NodXJjaOABAA!16s%2Fg%2F11wj9jcd0k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -4414,25 +4306,24 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.9</v>
+        <v>-7.933867</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.933867</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.571244</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+-+Iman/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cdf256cc05f:0x9d2924c36168a875!8m2!3d-7.9338672!4d110.5712444!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlBjSE5MWDJwM1JSQULgAQD6AQQIABA6!16s%2Fg%2F11c0rgd82n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+-+Iman/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4cdf256cc05f:0x9d2924c36168a875!8m2!3d-7.9338672!4d110.5712444!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlBjSE5MWDJwM1JSQULgAQD6AQQIABA6!16s%2Fg%2F11c0rgd82n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4455,25 +4346,24 @@
           <t>0822-4262-6189</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.9</v>
+        <v>-8.086724</v>
       </c>
       <c r="G106" t="n">
-        <v>-8.086724</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.663489</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+At-Taqwa/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb70a60da876f:0xf0beb36912340778!8m2!3d-8.086724!4d110.6634888!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhOMDltV0dObkVBReABAPoBBAgAEBE!16s%2Fg%2F11c5gvnp2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+At-Taqwa/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb70a60da876f:0xf0beb36912340778!8m2!3d-8.086724!4d110.6634888!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhOMDltV0dObkVBReABAPoBBAgAEBE!16s%2Fg%2F11c5gvnp2m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -4492,25 +4382,24 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.9</v>
+        <v>-7.967769</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.967769</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.539059</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Hidayah+Wiyoko/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3dc917a302b:0x1f4851284df19658!8m2!3d-7.9677694!4d110.5390594!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhhRFZMU1RWM1JSQULgAQD6AQQIABAY!16s%2Fg%2F11g4jf92rp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Hidayah+Wiyoko/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3dc917a302b:0x1f4851284df19658!8m2!3d-7.9677694!4d110.5390594!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhhRFZMU1RWM1JSQULgAQD6AQQIABAY!16s%2Fg%2F11g4jf92rp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -4529,25 +4418,24 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F108" t="n">
-        <v>4.8</v>
+        <v>-7.948276</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.948276</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.592753</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Iman/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4ccaa3e3f4ad:0x3f580519c27901ae!8m2!3d-7.9482759!4d110.5927529!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhlbEJmUVhwblJSQULgAQD6AQUI0AEQKw!16s%2Fg%2F11dxl76lgb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Iman/@-7.8751229,110.271138,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a4ccaa3e3f4ad:0x3f580519c27901ae!8m2!3d-7.9482759!4d110.5927529!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVsWhsiGXRlbXBhdCBpYmFkYWggZ3VudW5na2lkdWySAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhlbEJmUVhwblJSQULgAQD6AQUI0AEQKw!16s%2Fg%2F11dxl76lgb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4570,25 +4458,24 @@
           <t>0813-1790-1278</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.3</v>
+        <v>-7.860298</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.860298</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.710342</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/761.+Masjid+Jauharah+Sadhan+Gunungkidul+10.+%D9%85%D8%B3%D8%AC%D8%AF+%D8%AC%D9%88%D9%87%D8%B1%D8%A9+%D8%A7%D9%84%D8%B3%D8%AF%D8%AD%D8%A7%D9%86%E2%80%AD/@-7.8602983,110.4219505,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a49ff8e033947:0x3d4ea506920c3d58!8m2!3d-7.8602983!4d110.7103416!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11fyzbmhcj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/761.+Masjid+Jauharah+Sadhan+Gunungkidul+10.+%D9%85%D8%B3%D8%AC%D8%AF+%D8%AC%D9%88%D9%87%D8%B1%D8%A9+%D8%A7%D9%84%D8%B3%D8%AF%D8%AD%D8%A7%D9%86%E2%80%AD/@-7.8602983,110.4219505,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7a49ff8e033947:0x3d4ea506920c3d58!8m2!3d-7.8602983!4d110.7103416!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGbW9zcXVl4AEA!16s%2Fg%2F11fyzbmhcj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4612,22 +4499,21 @@
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>-7.982344</v>
+      </c>
       <c r="G110" t="n">
-        <v>-7.982344</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.647869</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Majlis+Ta'lim+Riyadlul+Jannah+Pragak+Bendorejo/@-7.8602983,110.4219505,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb5de4986d7d1:0x4edde9f21fcc3e35!8m2!3d-7.9823436!4d110.6478686!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11h_5ys2lp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4646,25 +4532,24 @@
           <t>(0274) 391234</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>5</v>
+      </c>
       <c r="F111" t="n">
-        <v>5</v>
+        <v>-7.952055</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.952055</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.671407</v>
       </c>
-      <c r="I111" t="b">
+      <c r="H111" t="b">
         <v>1</v>
       </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Klasis+Gunungkidul/@-7.8602983,110.4219505,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb52ec5e82e2f:0xba3efa4ebadf1bbd!8m2!3d-7.9520553!4d110.6714073!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F11b6dfrx4x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
+      </c>
       <c r="J111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Klasis+Gunungkidul/@-7.8602983,110.4219505,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb52ec5e82e2f:0xba3efa4ebadf1bbd!8m2!3d-7.9520553!4d110.6714073!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F11b6dfrx4x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4687,25 +4572,24 @@
           <t>(0274) 391234</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>-7.96517</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.96517</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.602822</v>
       </c>
-      <c r="I112" t="b">
+      <c r="H112" t="b">
         <v>1</v>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="I112" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Klasis+Gunung+Kidul/@-7.8602983,110.4219505,11z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Gunungkidul!3m6!1s0x2e7bb3439f0502f3:0xf61824515e466a1b!8m2!3d-7.9651701!4d110.6028216!15sChlUZW1wYXQgSWJhZGFoIEd1bnVuZ2tpZHVskgEGY2h1cmNo4AEA!16s%2Fg%2F1pzq9pq66?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
